--- a/2019-11-16_project-methodology2-Gantt-chart_CA_Jonas-Olden.xlsx
+++ b/2019-11-16_project-methodology2-Gantt-chart_CA_Jonas-Olden.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22313"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9453487-5CAE-486C-968F-4245B7314C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{317C7AFE-5A04-460D-9E92-4F3BCD3F34EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>[Purchase/Products]</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>[The company]</t>
+  </si>
+  <si>
+    <t>Overall progress bar----&gt;</t>
   </si>
   <si>
     <t>Make a company information, and production page.</t>
@@ -131,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\ m/dd/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +226,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4472C4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +284,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -452,19 +472,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF70AD47"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thick">
+        <color rgb="FF5B9BD5"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF70AD47"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thick">
+        <color rgb="FF5B9BD5"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -476,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -591,7 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -651,11 +670,19 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +1001,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,12 +1037,12 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="79" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1093,64 +1120,62 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="I11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="K11" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="P11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="37" t="s">
+      <c r="S11" s="58" t="s">
         <v>17</v>
-      </c>
-      <c r="R11" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="59" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="36" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="9">
         <v>43787</v>
@@ -1161,22 +1186,22 @@
       <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="55"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="57"/>
+      <c r="L12" s="56"/>
       <c r="R12" s="32"/>
       <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="36">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>43790</v>
@@ -1187,22 +1212,22 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="56"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="55"/>
       <c r="R13" s="28"/>
       <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="42.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>43787</v>
@@ -1213,67 +1238,66 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="80"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="55"/>
       <c r="R14" s="28"/>
       <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="36">
-      <c r="A15" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="72">
+      <c r="B15" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="71">
         <v>43789</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <v>43789</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="73">
         <v>1</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="55"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="55"/>
       <c r="R15" s="28"/>
       <c r="S15" s="30"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="68" t="s">
+    <row r="16" spans="1:19" ht="18">
+      <c r="A16" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66" t="str">
-        <f t="shared" ref="D16:D21" si="0">IF(ISBLANK(C16)," - ",IF(E16=0,C16,C16+E16-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="31"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="82"/>
     </row>
     <row r="17" spans="1:19" ht="30.75" customHeight="1">
       <c r="A17" s="8" t="s">
@@ -1291,16 +1315,16 @@
       <c r="E17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="81"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
       <c r="R17" s="28"/>
       <c r="S17" s="30"/>
     </row>
@@ -1309,7 +1333,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9">
         <v>43797</v>
@@ -1320,38 +1344,40 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
       <c r="R18" s="28"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" ht="36">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="78">
+      <c r="B19" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="77">
         <v>43794</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="78">
         <v>43794</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="73">
         <v>1</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="55"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="54"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -1359,18 +1385,15 @@
       <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="82"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="27"/>
@@ -1400,19 +1423,19 @@
       <c r="E21" s="47">
         <v>4</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="83"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="48"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35"/>
       <c r="M21" s="48"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="61"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
       <c r="S21" s="36"/>
     </row>
     <row r="22" spans="1:19">
